--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1040687889746963</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.584649606325818</v>
+        <v>-2.589071531232241</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.156073554857168</v>
+        <v>-0.166173231343439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1677857856065763</v>
+        <v>0.1610894664965594</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08236540061164761</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.709054516841442</v>
+        <v>-2.712267578966551</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2449719331759044</v>
+        <v>-0.2600083076197743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1962764002588316</v>
+        <v>0.1904632462887459</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04997762780222459</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.92927735575351</v>
+        <v>-2.925941089651698</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3573315202464316</v>
+        <v>-0.3747234083439025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1929791690803316</v>
+        <v>0.1878052119794779</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01021892337109176</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.092672665371608</v>
+        <v>-3.086327660571398</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4251986137895415</v>
+        <v>-0.4442775424788975</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2482453014418267</v>
+        <v>0.2447333781851113</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.0330625561097101</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.277911979067099</v>
+        <v>-3.271777701860705</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4674886837532216</v>
+        <v>-0.4880979034205385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2401644623955916</v>
+        <v>0.2409543096719804</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.07583913704702686</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.069857362616493</v>
+        <v>-3.063760595531719</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5085595222840823</v>
+        <v>-0.5290900621840987</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2465832675976882</v>
+        <v>0.2478006692684773</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1165963951029422</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.745752224120019</v>
+        <v>-2.741109507928613</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5232958157549922</v>
+        <v>-0.5471004098477921</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2601558324173627</v>
+        <v>0.2625265940878824</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.15487435965402</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.315225076341161</v>
+        <v>-2.31184733563333</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5613383981257988</v>
+        <v>-0.5890330662948978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2492120257144723</v>
+        <v>0.2536339506208958</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1919689840602331</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.910005977123286</v>
+        <v>-1.901667141630786</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6474244322040499</v>
+        <v>-0.6743262034933765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2834407740935733</v>
+        <v>0.2887293962816557</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2314202290911651</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.344223429989455</v>
+        <v>-1.330092177829879</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7983505235067103</v>
+        <v>-0.8254511289366568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3113824601367554</v>
+        <v>0.3188021451693955</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2762750314976494</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8257762166573636</v>
+        <v>-0.8084977738057678</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.069594446870107</v>
+        <v>-1.102005021711822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.34274092181108</v>
+        <v>0.3504838648023966</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3276226911732427</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.201832853630191</v>
+        <v>-0.1816688760569002</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.447989234724602</v>
+        <v>-1.482697990676304</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4173525181976699</v>
+        <v>0.4241738710464202</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3870595894534118</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4488122267043348</v>
+        <v>0.4734518022036028</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.805566210040332</v>
+        <v>-1.835548080747237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.523558615560486</v>
+        <v>0.5339107992069309</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.456332576469257</v>
       </c>
       <c r="E15" t="n">
-        <v>1.024962815422206</v>
+        <v>1.051042413639276</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.169855362403675</v>
+        <v>-2.197081611493032</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6180078819583066</v>
+        <v>0.6282234433731597</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5355281460406113</v>
       </c>
       <c r="E16" t="n">
-        <v>1.625440700252851</v>
+        <v>1.654926095528882</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.599090698189181</v>
+        <v>-2.620625167523125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7305937495999073</v>
+        <v>0.7394577267950868</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6240779839902404</v>
       </c>
       <c r="E17" t="n">
-        <v>2.151558276015725</v>
+        <v>2.183142408340447</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.884198118535061</v>
+        <v>-2.893718980299098</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8681247629998269</v>
+        <v>0.8750437031568569</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7243901291174424</v>
       </c>
       <c r="E18" t="n">
-        <v>2.583796861213539</v>
+        <v>2.614178229963713</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.1540874080754</v>
+        <v>-3.156637486424883</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006276675648676</v>
+        <v>1.01542670564125</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8383543337216972</v>
       </c>
       <c r="E19" t="n">
-        <v>2.93298620738263</v>
+        <v>2.962901596735769</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.396252753254156</v>
+        <v>-3.38765256675167</v>
       </c>
       <c r="G19" t="n">
-        <v>1.112532176586309</v>
+        <v>1.119588958816284</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9642012750826086</v>
       </c>
       <c r="E20" t="n">
-        <v>3.299260651548788</v>
+        <v>3.333327161027874</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.64172508834224</v>
+        <v>-3.628062865183083</v>
       </c>
       <c r="G20" t="n">
-        <v>1.214315739122025</v>
+        <v>1.220759551071868</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.100144074717299</v>
       </c>
       <c r="E21" t="n">
-        <v>3.609859096658676</v>
+        <v>3.641959221875926</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.795104280606781</v>
+        <v>-3.778222286195071</v>
       </c>
       <c r="G21" t="n">
-        <v>1.367909623464781</v>
+        <v>1.374089339761592</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.240246194530451</v>
       </c>
       <c r="E22" t="n">
-        <v>3.823519189088935</v>
+        <v>3.856740348510048</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.95701199369429</v>
+        <v>-3.933491622636855</v>
       </c>
       <c r="G22" t="n">
-        <v>1.455103883412683</v>
+        <v>1.46052119886356</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.376281789987534</v>
       </c>
       <c r="E23" t="n">
-        <v>4.036543744174022</v>
+        <v>4.06952581468985</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.102717164003987</v>
+        <v>-4.079787806082321</v>
       </c>
       <c r="G23" t="n">
-        <v>1.553650596916897</v>
+        <v>1.559112436577176</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.501227041558016</v>
       </c>
       <c r="E24" t="n">
-        <v>4.167677909516208</v>
+        <v>4.200928345129805</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.214296357568616</v>
+        <v>-4.192216924109998</v>
       </c>
       <c r="G24" t="n">
-        <v>1.61174737113918</v>
+        <v>1.61904324227444</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.608427314768575</v>
       </c>
       <c r="E25" t="n">
-        <v>4.278562708390359</v>
+        <v>4.308923339837524</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.18129873407553</v>
+        <v>-4.159494069881787</v>
       </c>
       <c r="G25" t="n">
-        <v>1.608069549458389</v>
+        <v>1.616246146050874</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.692149137335126</v>
       </c>
       <c r="E26" t="n">
-        <v>4.275295973245695</v>
+        <v>4.306138442027492</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.052952516146759</v>
+        <v>-4.034407877970235</v>
       </c>
       <c r="G26" t="n">
-        <v>1.564958526263806</v>
+        <v>1.574406197546634</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.748639412825915</v>
       </c>
       <c r="E27" t="n">
-        <v>4.384460795811417</v>
+        <v>4.41525691062178</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.965525571460678</v>
+        <v>-3.953668103584019</v>
       </c>
       <c r="G27" t="n">
-        <v>1.489009373833108</v>
+        <v>1.497699523635414</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.77786375389358</v>
       </c>
       <c r="E28" t="n">
-        <v>4.308642776326219</v>
+        <v>4.337810402929665</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.814599785118356</v>
+        <v>-3.805773623005134</v>
       </c>
       <c r="G28" t="n">
-        <v>1.428659552630918</v>
+        <v>1.438987949370969</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.780559994957583</v>
       </c>
       <c r="E29" t="n">
-        <v>4.234140965661444</v>
+        <v>4.262651097775355</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.744266477318815</v>
+        <v>-3.74210857796448</v>
       </c>
       <c r="G29" t="n">
-        <v>1.347778581608035</v>
+        <v>1.362986953682747</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.757241858566946</v>
       </c>
       <c r="E30" t="n">
-        <v>4.069441645636458</v>
+        <v>4.094506945768097</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.598793381826621</v>
+        <v>-3.595283288331935</v>
       </c>
       <c r="G30" t="n">
-        <v>1.262527528936252</v>
+        <v>1.278687377266691</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.711425141312992</v>
       </c>
       <c r="E31" t="n">
-        <v>3.836931344770625</v>
+        <v>3.854170142778232</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.476504896059312</v>
+        <v>-3.479751503821642</v>
       </c>
       <c r="G31" t="n">
-        <v>1.168680254246381</v>
+        <v>1.190430025579217</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.646258654491272</v>
       </c>
       <c r="E32" t="n">
-        <v>3.622856506280177</v>
+        <v>3.635503821433225</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.365311477322727</v>
+        <v>-3.375420912539826</v>
       </c>
       <c r="G32" t="n">
-        <v>1.101083355563071</v>
+        <v>1.123070386039162</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.564490504113911</v>
       </c>
       <c r="E33" t="n">
-        <v>3.427653833369668</v>
+        <v>3.436533058581766</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.229472383880106</v>
+        <v>-3.244126033099317</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9966149222083101</v>
+        <v>1.017901763747494</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.470598024113725</v>
       </c>
       <c r="E34" t="n">
-        <v>3.147114718892631</v>
+        <v>3.15254301291569</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.040375016943845</v>
+        <v>-3.055225670541645</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9203974046798424</v>
+        <v>0.9418300172607692</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.368925698870668</v>
       </c>
       <c r="E35" t="n">
-        <v>2.806911943974746</v>
+        <v>2.807445014646224</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.954427434859216</v>
+        <v>-2.969715706542583</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8732865216871457</v>
+        <v>0.8943300048763072</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.262878687152279</v>
       </c>
       <c r="E36" t="n">
-        <v>2.495595012307649</v>
+        <v>2.491095017554602</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.860542955008064</v>
+        <v>-2.872385784788481</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8020715735493658</v>
+        <v>0.8193963703723943</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.155936086587938</v>
       </c>
       <c r="E37" t="n">
-        <v>2.193748928909096</v>
+        <v>2.186099303781321</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.819076887878671</v>
+        <v>-2.829227187781112</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7525100292774952</v>
+        <v>0.770267869781015</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.05222078665824</v>
       </c>
       <c r="E38" t="n">
-        <v>1.949543399066618</v>
+        <v>1.939855419037151</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.721179739895194</v>
+        <v>-2.728743366207546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7639368931563701</v>
+        <v>0.7812787677583477</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9535099838566911</v>
       </c>
       <c r="E39" t="n">
-        <v>1.663955971148137</v>
+        <v>1.651696565545501</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.574307181410201</v>
+        <v>-2.577370203048829</v>
       </c>
       <c r="G39" t="n">
-        <v>0.673292311940104</v>
+        <v>0.6878993022275433</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8603774902464151</v>
       </c>
       <c r="E40" t="n">
-        <v>1.428731523270774</v>
+        <v>1.414920479466491</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.479247384414955</v>
+        <v>-2.482114621516348</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6140263197804953</v>
+        <v>0.6274085893490243</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7751407942605614</v>
       </c>
       <c r="E41" t="n">
-        <v>1.140373225717827</v>
+        <v>1.128888419374661</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.374110477998479</v>
+        <v>-2.376007331303165</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5822567715700424</v>
+        <v>0.5948278466384966</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6982095472111632</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8753675710362101</v>
+        <v>0.8610576121183472</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.252119023600746</v>
+        <v>-2.250644845325046</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5578324980696664</v>
+        <v>0.5673356721340779</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6286150625856951</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7133043281761301</v>
+        <v>0.699510362150796</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.125226246644666</v>
+        <v>-2.121325193996185</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4810739809009233</v>
+        <v>0.4915829141612924</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5669096226139813</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5260550208904158</v>
+        <v>0.5113126282127385</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.04259968264493</v>
+        <v>-2.037817294618549</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4228216769060698</v>
+        <v>0.4302139155082563</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.512684798699325</v>
       </c>
       <c r="E45" t="n">
-        <v>0.452501026957307</v>
+        <v>0.4376323806995429</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.937912897687893</v>
+        <v>-1.934339372442826</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3783450413162479</v>
+        <v>0.3859910069199616</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4643466318146928</v>
       </c>
       <c r="E46" t="n">
-        <v>0.235266189440628</v>
+        <v>0.2235380247474396</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.882808394305737</v>
+        <v>-1.877284952657106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2923139000989041</v>
+        <v>0.297284143693724</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4210210712862235</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08155581024861266</v>
+        <v>0.06954525228208991</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.786460444841199</v>
+        <v>-1.780986406767386</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2531051493941552</v>
+        <v>0.2594776006248189</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3824525791913462</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02506617700956103</v>
+        <v>0.01574414938614372</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.763402393656739</v>
+        <v>-1.758002765905488</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2207689848750034</v>
+        <v>0.2254940403577706</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3478684551602216</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.07364765476008189</v>
+        <v>-0.08050133340469982</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.677952506844336</v>
+        <v>-1.671463560764413</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1796395939591749</v>
+        <v>0.1889482033277037</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3158885672848192</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1790474369882371</v>
+        <v>-0.1821903582355198</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.650828724428673</v>
+        <v>-1.644584356540127</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1349519258151982</v>
+        <v>0.1423124485421937</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2861487498131449</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2805797122051327</v>
+        <v>-0.2800844566156133</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.647293014265565</v>
+        <v>-1.641562809507517</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08117643958767537</v>
+        <v>0.08763001026834658</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2570493959120694</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3608525923132981</v>
+        <v>-0.3581457643498903</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.619303754409596</v>
+        <v>-1.614826936642266</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0409704685764434</v>
+        <v>0.0469672086702303</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2271884477348227</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4643933363187252</v>
+        <v>-0.4632759616389228</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.563843057352219</v>
+        <v>-1.560536677363567</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02348343285339983</v>
+        <v>0.03019987934574944</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1965802167069182</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5364469253870338</v>
+        <v>-0.5336156736055693</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.586578460498679</v>
+        <v>-1.582044310187734</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.006590535875693416</v>
+        <v>-0.002245460974540251</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1653491910714699</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5819762840649229</v>
+        <v>-0.5751652998676773</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.53930106916123</v>
+        <v>-1.536654623344821</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04922338125970592</v>
+        <v>-0.04297657368845231</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1338411327169052</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6520232341067302</v>
+        <v>-0.645311057059118</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.535482355804111</v>
+        <v>-1.535074928792043</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09643551108474284</v>
+        <v>-0.0917836460831854</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1027340035090154</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7312970641463824</v>
+        <v>-0.7226557079982159</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.599752137195761</v>
+        <v>-1.599733839575458</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1154284409586774</v>
+        <v>-0.1107003358725264</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0727944218208398</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7936394961995084</v>
+        <v>-0.7856519750168158</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.620726089427773</v>
+        <v>-1.618923163907306</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1388085302604607</v>
+        <v>-0.1342335152641735</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04437241640515274</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9421655496391652</v>
+        <v>-0.9359553373085164</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.612828226584562</v>
+        <v>-1.612143285664574</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1497938115693699</v>
+        <v>-0.1438903893391255</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01749781477372861</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.058271269506279</v>
+        <v>-1.052295266715501</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.650291994233135</v>
+        <v>-1.649119116771748</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1844299869605387</v>
+        <v>-0.175757524857858</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.007541691930825332</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.171732373319013</v>
+        <v>-1.167096366255051</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.697013747834066</v>
+        <v>-1.696725865274641</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.188796409085378</v>
+        <v>-0.1817725625719474</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03119732179264545</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.257348768476168</v>
+        <v>-1.251931453025292</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.646717859067391</v>
+        <v>-1.646400700315482</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2166307490894524</v>
+        <v>-0.2116062225544019</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05407342806414983</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.300143852760196</v>
+        <v>-1.297311381137378</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.7389299364229</v>
+        <v>-1.740673089717046</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2400382848216893</v>
+        <v>-0.2338262427290104</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07630102205017461</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.39424363461024</v>
+        <v>-1.393059168655995</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.810787740953972</v>
+        <v>-1.809630721430181</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2504032768023459</v>
+        <v>-0.2426359369839593</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.09845912651288725</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.413497610533822</v>
+        <v>-1.409668528525198</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.887272403738856</v>
+        <v>-1.887172986668546</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2766310857438658</v>
+        <v>-0.2683800788288181</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1209224960039048</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.450928442465851</v>
+        <v>-1.449869620171016</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.960140236910623</v>
+        <v>-1.95939613368499</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3024185319567737</v>
+        <v>-0.2949799393831544</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1437998894420618</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.481376902490467</v>
+        <v>-1.482558928762005</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.058404557141503</v>
+        <v>-2.060148930277002</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3328639423780065</v>
+        <v>-0.3257315299841148</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1668559890119702</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.490428125333408</v>
+        <v>-1.494179747416086</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.177183559334803</v>
+        <v>-2.174742656786457</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.385018259446733</v>
+        <v>-0.3757621032564044</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1898047574243728</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.485440194038963</v>
+        <v>-1.48651914371613</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.305938424116995</v>
+        <v>-2.30490399864923</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3678337443793565</v>
+        <v>-0.35714427459867</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2117605554017009</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.468150772615186</v>
+        <v>-1.470919202566945</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.422980982143593</v>
+        <v>-2.418549908427019</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4055555084741936</v>
+        <v>-0.3964420737222241</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2317961370512082</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.553383527666666</v>
+        <v>-1.555640234170634</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.529457274366209</v>
+        <v>-2.522103460766658</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4403978370541031</v>
+        <v>-0.4309050316411964</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2491349665382377</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.581722272070411</v>
+        <v>-1.583067757083317</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.658072467313426</v>
+        <v>-2.649439040134057</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4385284301798703</v>
+        <v>-0.4292978906579652</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2629590788867146</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.553293869327184</v>
+        <v>-1.556173914762789</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.793235158725532</v>
+        <v>-2.783014717945265</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4927467188187122</v>
+        <v>-0.4824640661294167</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2725182041944728</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.499709288271484</v>
+        <v>-1.498562637399197</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.884354258228309</v>
+        <v>-2.872091193101612</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5335016184390174</v>
+        <v>-0.5230128125609811</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2771804249549799</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.476826894241927</v>
+        <v>-1.474420757172156</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.002314746873413</v>
+        <v>-2.991632596140848</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5406291514674952</v>
+        <v>-0.5319164346001493</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2768184346850478</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.351286921346874</v>
+        <v>-1.349439471617004</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.038018893369568</v>
+        <v>-3.027856395053591</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5119409225159736</v>
+        <v>-0.5021577948609347</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2716880183640179</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.247000244353784</v>
+        <v>-1.241868371779626</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.080520910768418</v>
+        <v>-3.070825306730492</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5286795855686472</v>
+        <v>-0.5173557982841428</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2628490915012674</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.053838366027674</v>
+        <v>-1.047836746568473</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.101877893185428</v>
+        <v>-3.090972511485173</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5203261119799059</v>
+        <v>-0.5105777498034416</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2507898604149266</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.854377836872787</v>
+        <v>-0.8447898838343075</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.160141480712801</v>
+        <v>-3.150443436992169</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5348965070267402</v>
+        <v>-0.5224846212549172</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2357921145106401</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.673085624836871</v>
+        <v>-0.6630554793077491</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.188519565000196</v>
+        <v>-3.184590456000585</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4870006561230688</v>
+        <v>-0.4746418334501228</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2180656033300051</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3867181083728298</v>
+        <v>-0.3728619304384674</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.230651970468937</v>
+        <v>-3.226578920189614</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4354410117141717</v>
+        <v>-0.4221965842185876</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1976283667598779</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1028232103323252</v>
+        <v>-0.08469148845395898</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.190091635544515</v>
+        <v>-3.185526989199732</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3630440373048539</v>
+        <v>-0.3492671490584688</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1745981311466616</v>
       </c>
       <c r="E83" t="n">
-        <v>0.115522292736712</v>
+        <v>0.1350909877294967</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.212250053730771</v>
+        <v>-3.207387156175059</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3109165567459044</v>
+        <v>-0.2951921917786627</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1487916861885324</v>
       </c>
       <c r="E84" t="n">
-        <v>0.418354617869567</v>
+        <v>0.4402428411960246</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.109429626044584</v>
+        <v>-3.103143173629342</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2529490857070922</v>
+        <v>-0.2395747451073608</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.120848499061304</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6383450770037938</v>
+        <v>0.6598630784794652</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.023134999094885</v>
+        <v>-3.01371690896488</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.210698050666724</v>
+        <v>-0.197521324366259</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09174720761165822</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9504347781683308</v>
+        <v>0.9732549602888594</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.971624148340128</v>
+        <v>-2.965343795131653</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1984520633189765</v>
+        <v>-0.1874570232792393</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06312731385384021</v>
       </c>
       <c r="E87" t="n">
-        <v>1.157102130039673</v>
+        <v>1.179820455407185</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.851076986104935</v>
+        <v>-2.847857824773058</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1794536441589512</v>
+        <v>-0.1692124660756746</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0373334508747319</v>
       </c>
       <c r="E88" t="n">
-        <v>1.313409551473282</v>
+        <v>1.335844263726105</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.688609975756847</v>
+        <v>-2.686965019691658</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1348245283999424</v>
+        <v>-0.1261770730450084</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01690972689399521</v>
       </c>
       <c r="E89" t="n">
-        <v>1.416996649450141</v>
+        <v>1.433919508547193</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.446615408367581</v>
+        <v>-2.447269243333055</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1363011463583494</v>
+        <v>-0.1276170957628106</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.004830972446957555</v>
       </c>
       <c r="E90" t="n">
-        <v>1.491188010490452</v>
+        <v>1.505547982903808</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.183231532765437</v>
+        <v>-2.184386112606521</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1220515695874845</v>
+        <v>-0.1147233726563566</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.003597303402251584</v>
       </c>
       <c r="E91" t="n">
-        <v>1.519008322318961</v>
+        <v>1.532527824039759</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.81448873962048</v>
+        <v>-1.814723559081028</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1020016471807456</v>
+        <v>-0.09689417143365738</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01562026748555387</v>
       </c>
       <c r="E92" t="n">
-        <v>1.535587186154327</v>
+        <v>1.549404329165377</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.509460700051332</v>
+        <v>-1.510673222356707</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07943519206174422</v>
+        <v>-0.07399713930785853</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04174657516754458</v>
       </c>
       <c r="E93" t="n">
-        <v>1.52399564369273</v>
+        <v>1.540311631716417</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.169194493383064</v>
+        <v>-1.168455269522846</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05110315678544344</v>
+        <v>-0.04587430682368233</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08169409418375519</v>
       </c>
       <c r="E94" t="n">
-        <v>1.51982073666039</v>
+        <v>1.53488699721742</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8552000099450433</v>
+        <v>-0.8515417057259085</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07155501691815931</v>
+        <v>-0.06715443923542207</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1351510493078507</v>
       </c>
       <c r="E95" t="n">
-        <v>1.447607348374773</v>
+        <v>1.458117501476496</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6260247553396676</v>
+        <v>-0.6254666779204431</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1374112019900309</v>
+        <v>-0.1355625324188075</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1995518351392025</v>
       </c>
       <c r="E96" t="n">
-        <v>1.352724428375785</v>
+        <v>1.364003691450886</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3637350774316095</v>
+        <v>-0.3629909742059769</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1959788349747631</v>
+        <v>-0.1939423098351014</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2721280516361446</v>
       </c>
       <c r="E97" t="n">
-        <v>1.253585481894448</v>
+        <v>1.260337303786049</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1797250588601041</v>
+        <v>-0.181410269689959</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2220193982685215</v>
+        <v>-0.2212795644876261</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3455068653324601</v>
       </c>
       <c r="E98" t="n">
-        <v>1.163313562211675</v>
+        <v>1.167056645404878</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.05996957366332995</v>
+        <v>-0.06463119739571536</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2751178725448539</v>
+        <v>-0.276260253972403</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4126347637758599</v>
       </c>
       <c r="E99" t="n">
-        <v>1.086455018051945</v>
+        <v>1.08861474716831</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1668934716564939</v>
+        <v>0.1627740674057375</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.318717442201512</v>
+        <v>-0.3179019782566999</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4592332259129763</v>
       </c>
       <c r="E100" t="n">
-        <v>0.914873963031212</v>
+        <v>0.914619626109008</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2205176975561832</v>
+        <v>0.218702573622181</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3026326141143123</v>
+        <v>-0.3045160491641103</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.478464350009991</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7840892822368027</v>
+        <v>0.7859044061708049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2618867872979737</v>
+        <v>0.2623100722476369</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3512841567364746</v>
+        <v>-0.3545484521984302</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4675210206385614</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6634622203929555</v>
+        <v>0.6638489101020139</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2619807150821929</v>
+        <v>0.2627742218826422</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3307804533462352</v>
+        <v>-0.3334525158310684</v>
       </c>
     </row>
   </sheetData>
